--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.66221836526</v>
+        <v>24.759128</v>
       </c>
       <c r="N2">
-        <v>24.66221836526</v>
+        <v>74.277384</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="Q2">
-        <v>40.9400336895302</v>
+        <v>150.340668661768</v>
       </c>
       <c r="R2">
-        <v>40.9400336895302</v>
+        <v>1353.066017955912</v>
       </c>
       <c r="S2">
-        <v>0.001085566696967822</v>
+        <v>0.003902851943495184</v>
       </c>
       <c r="T2">
-        <v>0.001085566696967822</v>
+        <v>0.003902851943495184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1476.30280581482</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1476.30280581482</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>24.66221836526</v>
+        <v>0.2610326666666667</v>
       </c>
       <c r="N3">
-        <v>24.66221836526</v>
+        <v>0.7830980000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.0104328933032964</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.0104328933032964</v>
       </c>
       <c r="Q3">
-        <v>36408.90217025112</v>
+        <v>1.585024547279333</v>
       </c>
       <c r="R3">
-        <v>36408.90217025112</v>
+        <v>14.265220925514</v>
       </c>
       <c r="S3">
-        <v>0.9654191290832239</v>
+        <v>4.114732354127055E-05</v>
       </c>
       <c r="T3">
-        <v>0.9654191290832239</v>
+        <v>4.114732354127054E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H4">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I4">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J4">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.66221836526</v>
+        <v>24.759128</v>
       </c>
       <c r="N4">
-        <v>24.66221836526</v>
+        <v>74.277384</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="Q4">
-        <v>1263.210162056635</v>
+        <v>36664.59943029125</v>
       </c>
       <c r="R4">
-        <v>1263.210162056635</v>
+        <v>329981.3948726212</v>
       </c>
       <c r="S4">
-        <v>0.03349530421980817</v>
+        <v>0.9518149973505767</v>
       </c>
       <c r="T4">
-        <v>0.03349530421980817</v>
+        <v>0.9518149973505765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1480.851806666667</v>
+      </c>
+      <c r="H5">
+        <v>4442.55542</v>
+      </c>
+      <c r="I5">
+        <v>0.9618498744646554</v>
+      </c>
+      <c r="J5">
+        <v>0.9618498744646552</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q5">
+        <v>386.5506960323511</v>
+      </c>
+      <c r="R5">
+        <v>3478.95626429116</v>
+      </c>
+      <c r="S5">
+        <v>0.01003487711407879</v>
+      </c>
+      <c r="T5">
+        <v>0.01003487711407879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>52.663316</v>
+      </c>
+      <c r="H6">
+        <v>157.989948</v>
+      </c>
+      <c r="I6">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J6">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>24.759128</v>
+      </c>
+      <c r="N6">
+        <v>74.277384</v>
+      </c>
+      <c r="O6">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="P6">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="Q6">
+        <v>1303.897781748448</v>
+      </c>
+      <c r="R6">
+        <v>11735.08003573603</v>
+      </c>
+      <c r="S6">
+        <v>0.03384925740263197</v>
+      </c>
+      <c r="T6">
+        <v>0.03384925740263196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>52.663316</v>
+      </c>
+      <c r="H7">
+        <v>157.989948</v>
+      </c>
+      <c r="I7">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J7">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P7">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q7">
+        <v>13.74684581098933</v>
+      </c>
+      <c r="R7">
+        <v>123.721612298904</v>
+      </c>
+      <c r="S7">
+        <v>0.0003568688656763449</v>
+      </c>
+      <c r="T7">
+        <v>0.0003568688656763448</v>
       </c>
     </row>
   </sheetData>
